--- a/medicine/Œil et vue/Choroïde/Choroïde.xlsx
+++ b/medicine/Œil et vue/Choroïde/Choroïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choro%C3%AFde</t>
+          <t>Choroïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La choroïde[1] est l’une des couches de la paroi du globe oculaire, située entre la sclérotique à l’extérieur et la rétine à l’intérieur. C’est une couche richement vascularisée qui assure la nutrition de l’iris et des photorécepteurs rétiniens. Avec le corps ciliaire et l’iris, la choroïde forme l’uvée. Sa structure lui assure une double fonction : d’une part, elle forme un écran qui maintient l’intérieur de l’œil en chambre noire, d’autre part, elle le protège du point de vue thermique, empêchant le passage d’une grande partie des rayonnements extérieurs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La choroïde est l’une des couches de la paroi du globe oculaire, située entre la sclérotique à l’extérieur et la rétine à l’intérieur. C’est une couche richement vascularisée qui assure la nutrition de l’iris et des photorécepteurs rétiniens. Avec le corps ciliaire et l’iris, la choroïde forme l’uvée. Sa structure lui assure une double fonction : d’une part, elle forme un écran qui maintient l’intérieur de l’œil en chambre noire, d’autre part, elle le protège du point de vue thermique, empêchant le passage d’une grande partie des rayonnements extérieurs.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choro%C3%AFde</t>
+          <t>Choroïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure anatomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue usuellement quatre ou cinq couches dans la choroïde :
 La couche de Haller - couche externe de la choroïde consistant en tissu conjonctif élastique, en cellules conjonctives pigmentées, et contenant des vaisseaux sanguins de gros diamètre (artères ciliaires postérieures).
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choro%C3%AFde</t>
+          <t>Choroïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Variations selon les espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La choroïde des primates (dont l’humain) est tapissée de cellules riches en mélanine, et donc très sombres, qui absorbent les radiations visibles et évitent ainsi des reflets inopportuns à l’intérieur de l’œil. Les primates albinos souffrent fréquemment d’une vision médiocre causée par le manque de pigments dans la choroïde.
 De nombreuses autres espèces animales disposent d’une choroïde tapissée au contraire de matériaux réfléchissants qui leur permettent de mieux recueillir la lumière dans l’obscurité.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choro%C3%AFde</t>
+          <t>Choroïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Choroïde et photographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’effet yeux rouges en photographie est produit par une diffusion de lumière par les vaisseaux sanguins (rouges) de la choroïde.
 </t>
